--- a/Project_Design/백승헌/몬스터 테이블.xlsx
+++ b/Project_Design/백승헌/몬스터 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/931022ae5b107afa/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/931022ae5b107afa/바탕 화면/경일아카데미/백승헌_합반프로젝트/Project_SkyPower/Project_Design/백승헌/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{E7B883BD-34FE-40B7-8E80-038D09A76FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0154B2-C57C-45A8-AD17-7A8396357AA8}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{E7B883BD-34FE-40B7-8E80-038D09A76FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B264A03-0EB0-496F-981A-4669A18CEE08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D361101-002F-4AE0-BA70-1E6F103E8671}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D361101-002F-4AE0-BA70-1E6F103E8671}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,14 @@
   <si>
     <t>일반 몬스터는 이동 타입 1과 탄막 타입 1 값만 가진다.
 엘리트 몬스터와 보스 몬스터는 2개의 타입이 반복되는 페이즈를 가지며 페이즈 반복주기 시간마다 변경되며 작동된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌표값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선으로만 발사하는 타입 2개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -541,13 +549,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,24 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,6 +647,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,6 +669,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DB6340-1242-4CFB-9D08-F52AF2AB4ADF}">
   <dimension ref="A3:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,197 +1006,197 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1218,15 +1244,15 @@
       <c r="Q14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1272,15 +1298,15 @@
       <c r="Q15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2">
         <v>0</v>
       </c>
@@ -1326,15 +1352,15 @@
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="18">
-        <v>0</v>
-      </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2">
         <v>0</v>
       </c>
@@ -1380,15 +1406,15 @@
       <c r="Q17" s="2">
         <v>0</v>
       </c>
-      <c r="R17" s="18">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2">
         <v>0</v>
       </c>
@@ -1434,15 +1460,15 @@
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="18">
-        <v>0</v>
-      </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2">
         <v>0</v>
       </c>
@@ -1488,15 +1514,15 @@
       <c r="Q19" s="2">
         <v>0</v>
       </c>
-      <c r="R19" s="18">
-        <v>0</v>
-      </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2">
         <v>0</v>
       </c>
@@ -1542,15 +1568,15 @@
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="18">
-        <v>0</v>
-      </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2">
         <v>1</v>
       </c>
@@ -1596,15 +1622,15 @@
       <c r="Q21" s="2">
         <v>0</v>
       </c>
-      <c r="R21" s="18">
-        <v>0</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2">
         <v>1</v>
       </c>
@@ -1650,15 +1676,15 @@
       <c r="Q22" s="2">
         <v>0</v>
       </c>
-      <c r="R22" s="18">
-        <v>0</v>
-      </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2">
         <v>1</v>
       </c>
@@ -1704,398 +1730,402 @@
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="18">
-        <v>0</v>
-      </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21">
+      <c r="A24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15">
         <v>2</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="15">
         <v>1</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="15">
         <v>1500</v>
       </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
         <v>5</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="15">
         <v>6</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="15">
         <v>2</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="15">
         <v>3</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="15">
         <v>20</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="15">
         <v>3</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="15">
         <v>5</v>
       </c>
-      <c r="O24" s="21">
-        <v>0</v>
-      </c>
-      <c r="P24" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>0</v>
-      </c>
-      <c r="R24" s="22">
-        <v>0</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-    </row>
-    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>0</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="22">
+        <v>4</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="5">
         <v>2</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E39" s="11">
+    <row r="39" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="7">
         <v>3</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="13">
+    <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="E43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="7">
         <v>4</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="E42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="E43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="11">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="11">
-        <v>1</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="11">
-        <v>2</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="11">
-        <v>2</v>
-      </c>
-      <c r="F46" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="11">
-        <v>3</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="13">
-        <v>3</v>
-      </c>
-      <c r="F47" s="14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="13">
-        <v>4</v>
-      </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="11">
-        <v>0</v>
-      </c>
-      <c r="C52" s="12" t="s">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="11">
+      <c r="B53" s="5">
         <v>1</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="11">
+      <c r="B54" s="5">
         <v>2</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="11">
+      <c r="B55" s="5">
         <v>3</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="11">
+      <c r="B56" s="5">
         <v>4</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="11">
+      <c r="B57" s="5">
         <v>5</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="11">
+      <c r="B58" s="5">
         <v>6</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
